--- a/excel/excel_atualizado.xlsx
+++ b/excel/excel_atualizado.xlsx
@@ -451,243 +451,243 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>07134100</t>
+          <t>Rua Nossa Senhora Dos Remédios</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rua Nossa Senhora Dos Remédios</t>
+          <t>Vila São João Batista</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Vila São João Batista</t>
+          <t>Guarulhos</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Guarulhos</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>07134-100</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>96501355</t>
+          <t>Praça Reinaldo Feldmann</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Praça Reinaldo Feldmann</t>
+          <t>Centro</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Centro</t>
+          <t>Cachoeira do Sul</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Cachoeira do Sul</t>
+          <t>RS</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>96501-355</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>85911340</t>
+          <t>Estrada Narciso Antônio Casarotto</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Estrada Narciso Antônio Casarotto</t>
+          <t>Jardim Panorama</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jardim Panorama</t>
+          <t>Toledo</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Toledo</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>85911-340</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>69313085</t>
+          <t>Rua Águas Marinhas (Cj C Servidor)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rua Águas Marinhas</t>
+          <t>Jóquei Clube</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jóquei Clube</t>
+          <t>Boa Vista</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Boa Vista</t>
+          <t>RR</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>RR</t>
+          <t>69313-085</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>78042100</t>
+          <t>Rua Primavera</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rua Primavera</t>
+          <t>Parque Amperco</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Parque Amperco</t>
+          <t>Cuiabá</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Cuiabá</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>78042-100</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>59035148</t>
+          <t>2ª Travessa Vilela</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2ª Travessa Vilela</t>
+          <t>Quintas</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Quintas</t>
+          <t>Natal</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Natal</t>
+          <t>RN</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>RN</t>
+          <t>59035-148</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>57302676</t>
+          <t>Avenida Miguel Guimarães Silva</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Avenida Miguel Guimarães Silva</t>
+          <t>Canafístula</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Canafístula</t>
+          <t>Arapiraca</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Arapiraca</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>57302-676</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>60333640</t>
+          <t>Rua Pedro Rodrigues</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rua Pedro Rodrigues</t>
+          <t>Barra do Ceará</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Barra do Ceará</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>CE</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CE</t>
+          <t>60333-640</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>29195633</t>
+          <t>Rua José Zamperlini</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Rua José Zamperlini</t>
+          <t>Recanto Feliz</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Recanto Feliz</t>
+          <t>Aracruz</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Aracruz</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>29195-633</t>
         </is>
       </c>
     </row>
